--- a/documents/schedule_classrooms.xlsx
+++ b/documents/schedule_classrooms.xlsx
@@ -753,7 +753,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
@@ -1504,7 +1504,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
@@ -2752,7 +2752,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
@@ -3331,7 +3331,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -4342,7 +4342,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -5496,7 +5496,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
@@ -6236,7 +6236,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
@@ -7358,7 +7358,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
@@ -8369,7 +8369,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -9347,7 +9347,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
@@ -10182,7 +10182,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -11415,7 +11415,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -12601,7 +12601,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
@@ -13754,7 +13754,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -14765,7 +14765,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -15792,7 +15792,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -16850,7 +16850,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
@@ -17967,7 +17967,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
@@ -19101,7 +19101,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -20174,7 +20174,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
@@ -21168,7 +21168,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
@@ -22115,7 +22115,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -23063,7 +23063,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -24248,7 +24248,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -25084,7 +25084,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
@@ -26063,7 +26063,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
@@ -27169,7 +27169,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -27877,7 +27877,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="11" customWidth="1" min="7" max="7"/>
@@ -28552,7 +28552,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
@@ -29037,7 +29037,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -30508,7 +30508,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
@@ -31453,7 +31453,7 @@
   <cols>
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
